--- a/FilteredOutput.xlsx
+++ b/FilteredOutput.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,40 +496,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45210</v>
+        <v>45087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:39:00</t>
+          <t>19:19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4975.48</v>
+        <v>1446.33</v>
       </c>
       <c r="F2" t="n">
-        <v>4975.48</v>
+        <v>1446.33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Clearing account adjustment</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>User_36</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -539,46 +539,46 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12:39:00</t>
+          <t>19:19:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45073</v>
+        <v>44970</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:01:00</t>
+          <t>08:51:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1826.06</v>
+        <v>1353.67</v>
       </c>
       <c r="F3" t="n">
-        <v>1826.06</v>
+        <v>1353.67</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accrued expenses for the month</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>User_45</t>
+          <t>User_15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -588,41 +588,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12:01:00</t>
+          <t>08:51:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45260</v>
+        <v>45024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:57:00</t>
+          <t>04:33:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6712.74</v>
+        <v>9935.18</v>
       </c>
       <c r="F4" t="n">
-        <v>6712.74</v>
+        <v>9935.18</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>User_17</t>
+          <t>User_30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,46 +637,46 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13:57:00</t>
+          <t>04:33:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45112</v>
+        <v>45256</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:22:00</t>
+          <t>07:03:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8421.68</v>
+        <v>3455.36</v>
       </c>
       <c r="F5" t="n">
-        <v>8421.68</v>
+        <v>3455.36</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>User_3</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -686,46 +686,46 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13:22:00</t>
+          <t>07:03:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45160</v>
+        <v>45286</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Top-side Entries</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2739.6</v>
+        <v>3358.36</v>
       </c>
       <c r="F6" t="n">
-        <v>2739.6</v>
+        <v>3358.36</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_12</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -735,46 +735,46 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44937</v>
+        <v>45021</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>01:43:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1243.84</v>
+        <v>5264.82</v>
       </c>
       <c r="F7" t="n">
-        <v>1243.84</v>
+        <v>5264.82</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accrued expenses for the month</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>User_10</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -784,46 +784,46 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>01:43:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45168</v>
+        <v>44934</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>07:29:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Other Comprehensive Income</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6170.44</v>
+        <v>5295.85</v>
       </c>
       <c r="F8" t="n">
-        <v>6170.44</v>
+        <v>5295.85</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>User_45</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -833,46 +833,46 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>07:29:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45170</v>
+        <v>45207</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:51:00</t>
+          <t>02:36:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1210.89</v>
+        <v>6859.72</v>
       </c>
       <c r="F9" t="n">
-        <v>1210.89</v>
+        <v>6859.72</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>User_3</t>
+          <t>User_10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12:51:00</t>
+          <t>02:36:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45153</v>
+        <v>45172</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>19:19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Top-side Entries</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4559.39</v>
+        <v>4435.5</v>
       </c>
       <c r="F10" t="n">
-        <v>4559.39</v>
+        <v>4435.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -916,12 +916,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -931,46 +931,46 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>19:19:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45049</v>
+        <v>45071</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>00:49:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5337.41</v>
+        <v>1046.37</v>
       </c>
       <c r="F11" t="n">
-        <v>5337.41</v>
+        <v>1046.37</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Accrued expenses for the month</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -980,46 +980,46 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>00:49:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45067</v>
+        <v>45174</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:37:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2048.11</v>
+        <v>5839.88</v>
       </c>
       <c r="F12" t="n">
-        <v>2048.11</v>
+        <v>5839.88</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>User_28</t>
+          <t>User_2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1029,41 +1029,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>15:37:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45154</v>
+        <v>45156</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:44:00</t>
+          <t>00:14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Allowance for Doubtful Accounts</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4764.12</v>
+        <v>3899.62</v>
       </c>
       <c r="F13" t="n">
-        <v>4764.12</v>
+        <v>3899.62</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_40</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1078,41 +1078,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>16:44:00</t>
+          <t>00:14:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:58:00</t>
+          <t>04:54:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bad Debt Expense</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8235.08</v>
+        <v>1929.51</v>
       </c>
       <c r="F14" t="n">
-        <v>8235.08</v>
+        <v>1929.51</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_36</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1127,41 +1127,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10:58:00</t>
+          <t>04:54:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:34:00</t>
+          <t>23:35:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9348.83</v>
+        <v>7181.03</v>
       </c>
       <c r="F15" t="n">
-        <v>9348.83</v>
+        <v>7181.03</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>User_42</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1176,41 +1176,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>09:34:00</t>
+          <t>23:35:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45281</v>
+        <v>44975</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:24:00</t>
+          <t>19:54:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4761.78</v>
+        <v>4369.26</v>
       </c>
       <c r="F16" t="n">
-        <v>4761.78</v>
+        <v>4369.26</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>User_42</t>
+          <t>User_29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1220,37 +1220,37 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15:24:00</t>
+          <t>19:54:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45072</v>
+        <v>45181</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>19:27:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9972.870000000001</v>
+        <v>8606.91</v>
       </c>
       <c r="F17" t="n">
-        <v>9972.870000000001</v>
+        <v>8606.91</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1259,61 +1259,61 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_6</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>19:27:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45001</v>
+        <v>45153</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:29:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4196.21</v>
+        <v>4559.39</v>
       </c>
       <c r="F18" t="n">
-        <v>4196.21</v>
+        <v>4559.39</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1323,41 +1323,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>14:29:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45288</v>
+        <v>45095</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:48:00</t>
+          <t>22:02:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215.98</v>
+        <v>5606.14</v>
       </c>
       <c r="F19" t="n">
-        <v>3215.98</v>
+        <v>5606.14</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>User_3</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1372,95 +1372,95 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12:48:00</t>
+          <t>22:02:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44941</v>
+        <v>45069</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:41:00</t>
+          <t>20:48:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8145.84</v>
+        <v>2380.05</v>
       </c>
       <c r="F20" t="n">
-        <v>8145.84</v>
+        <v>2380.05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>User_27</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10:41:00</t>
+          <t>20:48:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45178</v>
+        <v>45010</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:58:00</t>
+          <t>01:52:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9583.370000000001</v>
+        <v>1131.87</v>
       </c>
       <c r="F21" t="n">
-        <v>9583.370000000001</v>
+        <v>1131.87</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_6</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1470,41 +1470,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11:58:00</t>
+          <t>01:52:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44999</v>
+        <v>44977</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>21:49:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4561.12</v>
+        <v>8234.41</v>
       </c>
       <c r="F22" t="n">
-        <v>4561.12</v>
+        <v>8234.41</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_48</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1519,46 +1519,46 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>21:49:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45028</v>
+        <v>45115</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>22:24:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8140.37</v>
+        <v>1991.66</v>
       </c>
       <c r="F23" t="n">
-        <v>8140.37</v>
+        <v>1991.66</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1568,46 +1568,46 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>22:24:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45018</v>
+        <v>45237</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11:43:00</t>
+          <t>06:53:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5471.62</v>
+        <v>8523.35</v>
       </c>
       <c r="F24" t="n">
-        <v>5471.62</v>
+        <v>8523.35</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1617,46 +1617,46 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11:43:00</t>
+          <t>06:53:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45180</v>
+        <v>45104</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:27:00</t>
+          <t>07:11:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1461.92</v>
+        <v>5003.43</v>
       </c>
       <c r="F25" t="n">
-        <v>1461.92</v>
+        <v>5003.43</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>User_49</t>
+          <t>User_19</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1666,41 +1666,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13:27:00</t>
+          <t>07:11:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45040</v>
+        <v>45079</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:21:00</t>
+          <t>09:34:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5466.19</v>
+        <v>9348.83</v>
       </c>
       <c r="F26" t="n">
-        <v>5466.19</v>
+        <v>9348.83</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>User_9</t>
+          <t>User_42</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1715,46 +1715,46 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14:21:00</t>
+          <t>09:34:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44960</v>
+        <v>45213</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>09:14:00</t>
+          <t>03:37:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7397.7</v>
+        <v>1702.36</v>
       </c>
       <c r="F27" t="n">
-        <v>7397.7</v>
+        <v>1702.36</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_37</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1764,46 +1764,46 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>09:14:00</t>
+          <t>03:37:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45121</v>
+        <v>45141</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>19:34:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2981.83</v>
+        <v>7719.44</v>
       </c>
       <c r="F28" t="n">
-        <v>2981.83</v>
+        <v>7719.44</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>User_19</t>
+          <t>User_36</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1813,139 +1813,139 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>19:34:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45181</v>
+        <v>45135</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:33:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9278.120000000001</v>
+        <v>1117.23</v>
       </c>
       <c r="F29" t="n">
-        <v>9278.120000000001</v>
+        <v>1117.23</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_2</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13:33:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45177</v>
+        <v>44963</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:02:00</t>
+          <t>01:53:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5026.11</v>
+        <v>8073.58</v>
       </c>
       <c r="F30" t="n">
-        <v>5026.11</v>
+        <v>8073.58</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>User_39</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>16:02:00</t>
+          <t>01:53:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45028</v>
+        <v>45245</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:02:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Top-side Entries</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1214.03</v>
+        <v>5762.33</v>
       </c>
       <c r="F31" t="n">
-        <v>1214.03</v>
+        <v>5762.33</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>User_43</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1960,46 +1960,46 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11:02:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45088</v>
+        <v>45128</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:42:00</t>
+          <t>01:51:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>9395.530000000001</v>
+        <v>6517.52</v>
       </c>
       <c r="F32" t="n">
-        <v>9395.530000000001</v>
+        <v>6517.52</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>User_9</t>
+          <t>User_24</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2009,46 +2009,46 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13:42:00</t>
+          <t>01:51:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45092</v>
+        <v>45013</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:21:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3181.44</v>
+        <v>9668.940000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>3181.44</v>
+        <v>9668.940000000001</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Gain on disposal of assets</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>User_30</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2058,41 +2058,41 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>11:21:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45043</v>
+        <v>44997</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>19:01:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4651.35</v>
+        <v>4335.42</v>
       </c>
       <c r="F34" t="n">
-        <v>4651.35</v>
+        <v>4335.42</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Clearing account adjustment</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>User_27</t>
+          <t>User_37</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2107,46 +2107,46 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>19:01:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44936</v>
+        <v>44980</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:16:00</t>
+          <t>07:08:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Travel &amp; Entertainment</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5023.58</v>
+        <v>5502.17</v>
       </c>
       <c r="F35" t="n">
-        <v>5023.58</v>
+        <v>5502.17</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>User_9</t>
+          <t>User_37</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2156,46 +2156,46 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>12:16:00</t>
+          <t>07:08:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44948</v>
+        <v>45016</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:31:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3209.7</v>
+        <v>2681.92</v>
       </c>
       <c r="F36" t="n">
-        <v>3209.7</v>
+        <v>2681.92</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>User_32</t>
+          <t>User_16</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2205,32 +2205,32 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13:31:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44948</v>
+        <v>45044</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:27:00</t>
+          <t>02:47:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7211.78</v>
+        <v>3334.75</v>
       </c>
       <c r="F37" t="n">
-        <v>7211.78</v>
+        <v>3334.75</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_36</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2254,46 +2254,46 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14:27:00</t>
+          <t>02:47:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45071</v>
+        <v>44999</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5005.01</v>
+        <v>4561.12</v>
       </c>
       <c r="F38" t="n">
-        <v>5005.01</v>
+        <v>4561.12</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>User_22</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2303,41 +2303,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45217</v>
+        <v>45097</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10:22:00</t>
+          <t>21:58:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5510.59</v>
+        <v>1280.6</v>
       </c>
       <c r="F39" t="n">
-        <v>5510.59</v>
+        <v>1280.6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_40</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2352,46 +2352,46 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>10:22:00</t>
+          <t>21:58:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45072</v>
+        <v>45028</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3404.57</v>
+        <v>8140.37</v>
       </c>
       <c r="F40" t="n">
-        <v>3404.57</v>
+        <v>8140.37</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>User_3</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2401,46 +2401,46 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45002</v>
+        <v>45039</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10:16:00</t>
+          <t>05:38:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Accounts Receivable</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3282.48</v>
+        <v>2563.45</v>
       </c>
       <c r="F41" t="n">
-        <v>3282.48</v>
+        <v>2563.45</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2450,41 +2450,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>10:16:00</t>
+          <t>05:38:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45220</v>
+        <v>45052</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:07:00</t>
+          <t>02:06:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>9425.709999999999</v>
+        <v>3798.33</v>
       </c>
       <c r="F42" t="n">
-        <v>9425.709999999999</v>
+        <v>3798.33</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_21</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2499,46 +2499,46 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>14:07:00</t>
+          <t>02:06:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44977</v>
+        <v>45061</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>02:45:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Allowance for Doubtful Accounts</t>
+          <t>Top-side Entries</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4397.33</v>
+        <v>8801.799999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>4397.33</v>
+        <v>8801.799999999999</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2548,95 +2548,95 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>02:45:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45251</v>
+        <v>45188</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10:36:00</t>
+          <t>05:34:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4101.47</v>
+        <v>6247.29</v>
       </c>
       <c r="F44" t="n">
-        <v>4101.47</v>
+        <v>6247.29</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>User_24</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>10:36:00</t>
+          <t>05:34:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45153</v>
+        <v>45101</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:29:00</t>
+          <t>02:32:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2505.71</v>
+        <v>6388.83</v>
       </c>
       <c r="F45" t="n">
-        <v>2505.71</v>
+        <v>6388.83</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>User_21</t>
+          <t>User_24</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2646,46 +2646,46 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16:29:00</t>
+          <t>02:32:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45252</v>
+        <v>45074</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:47:00</t>
+          <t>19:13:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>8385.360000000001</v>
+        <v>6503.93</v>
       </c>
       <c r="F46" t="n">
-        <v>8385.360000000001</v>
+        <v>6503.93</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>User_15</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2695,32 +2695,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>14:47:00</t>
+          <t>19:13:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45134</v>
+        <v>44973</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:13:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1014.86</v>
+        <v>1521.94</v>
       </c>
       <c r="F47" t="n">
-        <v>1014.86</v>
+        <v>1521.94</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2729,12 +2729,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>User_1</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2744,46 +2744,46 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>16:13:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45274</v>
+        <v>45079</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>13:10:00</t>
+          <t>22:28:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6871.05</v>
+        <v>2995.73</v>
       </c>
       <c r="F48" t="n">
-        <v>6871.05</v>
+        <v>2995.73</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>User_39</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2793,90 +2793,90 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>13:10:00</t>
+          <t>22:28:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45040</v>
+        <v>44960</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:06:00</t>
+          <t>09:14:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3554.1</v>
+        <v>7397.7</v>
       </c>
       <c r="F49" t="n">
-        <v>3554.1</v>
+        <v>7397.7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Gain on disposal of assets</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>User_26</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>11:06:00</t>
+          <t>09:14:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45257</v>
+        <v>45121</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13:36:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3640.42</v>
+        <v>2981.83</v>
       </c>
       <c r="F50" t="n">
-        <v>3640.42</v>
+        <v>2981.83</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_19</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2891,46 +2891,46 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>13:36:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44942</v>
+        <v>45214</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>13:59:00</t>
+          <t>08:19:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Accounts Receivable</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8549.5</v>
+        <v>2740.26</v>
       </c>
       <c r="F51" t="n">
-        <v>8549.5</v>
+        <v>2740.26</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>User_31</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2940,46 +2940,46 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>13:59:00</t>
+          <t>08:19:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45085</v>
+        <v>45071</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>09:31:00</t>
+          <t>03:48:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8702.27</v>
+        <v>8425.049999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>8702.27</v>
+        <v>8425.049999999999</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>User_23</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2989,41 +2989,41 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>09:31:00</t>
+          <t>03:48:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45130</v>
+        <v>45197</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12:21:00</t>
+          <t>04:44:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2693.74</v>
+        <v>7177.55</v>
       </c>
       <c r="F53" t="n">
-        <v>2693.74</v>
+        <v>7177.55</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>User_40</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3038,95 +3038,95 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>12:21:00</t>
+          <t>04:44:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45043</v>
+        <v>45212</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10:06:00</t>
+          <t>08:01:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5743.11</v>
+        <v>9232.790000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>5743.11</v>
+        <v>9232.790000000001</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>User_12</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10:06:00</t>
+          <t>08:01:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45141</v>
+        <v>45103</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15:54:00</t>
+          <t>01:50:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4783</v>
+        <v>9272.709999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>4783</v>
+        <v>9272.709999999999</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>User_38</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3136,46 +3136,46 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>15:54:00</t>
+          <t>01:50:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44975</v>
+        <v>45189</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>11:29:00</t>
+          <t>05:12:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Allowance for Doubtful Accounts</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2317.26</v>
+        <v>7143.94</v>
       </c>
       <c r="F56" t="n">
-        <v>2317.26</v>
+        <v>7143.94</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>User_3</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3185,32 +3185,32 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>11:29:00</t>
+          <t>05:12:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45254</v>
+        <v>45136</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>13:26:00</t>
+          <t>06:52:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3890.21</v>
+        <v>5999.4</v>
       </c>
       <c r="F57" t="n">
-        <v>3890.21</v>
+        <v>5999.4</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3219,203 +3219,203 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>User_18</t>
+          <t>User_2</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13:26:00</t>
+          <t>06:52:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45064</v>
+        <v>45276</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:13:00</t>
+          <t>23:46:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6438.93</v>
+        <v>2825.72</v>
       </c>
       <c r="F58" t="n">
-        <v>6438.93</v>
+        <v>2825.72</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>User_32</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>14:13:00</t>
+          <t>23:46:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45214</v>
+        <v>45092</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>00:33:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3801.78</v>
+        <v>7528.55</v>
       </c>
       <c r="F59" t="n">
-        <v>3801.78</v>
+        <v>7528.55</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_9</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45212</v>
+        <v>45242</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>13:55:00</t>
+          <t>21:23:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>7313.94</v>
+        <v>5085.03</v>
       </c>
       <c r="F60" t="n">
-        <v>7313.94</v>
+        <v>5085.03</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_29</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13:55:00</t>
+          <t>21:23:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45030</v>
+        <v>45060</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13:34:00</t>
+          <t>21:03:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5344.31</v>
+        <v>6905.87</v>
       </c>
       <c r="F61" t="n">
-        <v>5344.31</v>
+        <v>6905.87</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Gain on disposal of assets</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3430,130 +3430,130 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>13:34:00</t>
+          <t>21:03:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45021</v>
+        <v>45241</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>13:33:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bad Debt Expense</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8498.42</v>
+        <v>6408.86</v>
       </c>
       <c r="F62" t="n">
-        <v>8498.42</v>
+        <v>6408.86</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_49</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>13:33:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45058</v>
+        <v>45123</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15:05:00</t>
+          <t>19:46:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>7254.73</v>
+        <v>1646.14</v>
       </c>
       <c r="F63" t="n">
-        <v>7254.73</v>
+        <v>1646.14</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15:05:00</t>
+          <t>19:46:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45140</v>
+        <v>45274</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>13:52:00</t>
+          <t>19:41:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3736.08</v>
+        <v>7869.06</v>
       </c>
       <c r="F64" t="n">
-        <v>3736.08</v>
+        <v>7869.06</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3562,12 +3562,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>User_25</t>
+          <t>User_43</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3577,41 +3577,41 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>13:52:00</t>
+          <t>19:41:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45229</v>
+        <v>45176</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>09:01:00</t>
+          <t>05:09:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3013.08</v>
+        <v>3533.3</v>
       </c>
       <c r="F65" t="n">
-        <v>3013.08</v>
+        <v>3533.3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>User_10</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3626,41 +3626,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>09:01:00</t>
+          <t>05:09:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45039</v>
+        <v>45239</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15:17:00</t>
+          <t>07:24:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8613.549999999999</v>
+        <v>4944.96</v>
       </c>
       <c r="F66" t="n">
-        <v>8613.549999999999</v>
+        <v>4944.96</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>User_27</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3675,46 +3675,46 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>15:17:00</t>
+          <t>07:24:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45161</v>
+        <v>44950</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16:12:00</t>
+          <t>22:38:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Top-side Entries</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4004.85</v>
+        <v>4796.43</v>
       </c>
       <c r="F67" t="n">
-        <v>4004.85</v>
+        <v>4796.43</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Revenue recognition adjustment</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_14</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3724,41 +3724,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16:12:00</t>
+          <t>22:38:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45166</v>
+        <v>44932</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15:09:00</t>
+          <t>04:09:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7556.16</v>
+        <v>3178.55</v>
       </c>
       <c r="F68" t="n">
-        <v>7556.16</v>
+        <v>3178.55</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3773,41 +3773,41 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>15:09:00</t>
+          <t>04:09:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45195</v>
+        <v>45158</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>13:41:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Allowance for Doubtful Accounts</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1181.39</v>
+        <v>8483.9</v>
       </c>
       <c r="F69" t="n">
-        <v>1181.39</v>
+        <v>8483.9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>User_28</t>
+          <t>User_27</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3822,95 +3822,95 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13:41:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45009</v>
+        <v>45194</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10:53:00</t>
+          <t>01:02:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bad Debt Expense</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1599.32</v>
+        <v>6564.8</v>
       </c>
       <c r="F70" t="n">
-        <v>1599.32</v>
+        <v>6564.8</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_45</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>10:53:00</t>
+          <t>01:02:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45194</v>
+        <v>45190</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15:34:00</t>
+          <t>21:17:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7602</v>
+        <v>6490.27</v>
       </c>
       <c r="F71" t="n">
-        <v>7602</v>
+        <v>6490.27</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>User_4</t>
+          <t>User_15</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3920,46 +3920,46 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>15:34:00</t>
+          <t>21:17:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45063</v>
+        <v>45002</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11:33:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>8994.790000000001</v>
+        <v>4932.44</v>
       </c>
       <c r="F72" t="n">
-        <v>8994.790000000001</v>
+        <v>4932.44</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Clearing account adjustment</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>User_3</t>
+          <t>User_27</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3969,32 +3969,32 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>11:33:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45100</v>
+        <v>44959</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>09:39:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7759.75</v>
+        <v>2952.52</v>
       </c>
       <c r="F73" t="n">
-        <v>7759.75</v>
+        <v>2952.52</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4003,12 +4003,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>User_49</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4018,41 +4018,41 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>09:39:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45164</v>
+        <v>45169</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>13:10:00</t>
+          <t>22:57:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5988.61</v>
+        <v>2243.98</v>
       </c>
       <c r="F74" t="n">
-        <v>5988.61</v>
+        <v>2243.98</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>User_21</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4067,32 +4067,32 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>13:10:00</t>
+          <t>22:57:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45187</v>
+        <v>45072</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>13:02:00</t>
+          <t>00:28:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2302.02</v>
+        <v>5294.06</v>
       </c>
       <c r="F75" t="n">
-        <v>2302.02</v>
+        <v>5294.06</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>User_6</t>
+          <t>User_29</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4116,46 +4116,46 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>13:02:00</t>
+          <t>00:28:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44954</v>
+        <v>45007</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12:54:00</t>
+          <t>21:33:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Accounts Receivable</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1028.71</v>
+        <v>3632.24</v>
       </c>
       <c r="F76" t="n">
-        <v>1028.71</v>
+        <v>3632.24</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accrued expenses for the month</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>User_20</t>
+          <t>User_12</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4165,46 +4165,46 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>12:54:00</t>
+          <t>21:33:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45176</v>
+        <v>45196</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16:56:00</t>
+          <t>08:58:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4358.52</v>
+        <v>6642.34</v>
       </c>
       <c r="F77" t="n">
-        <v>4358.52</v>
+        <v>6642.34</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>User_10</t>
+          <t>User_20</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4214,46 +4214,46 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16:56:00</t>
+          <t>08:58:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45113</v>
+        <v>45161</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10:29:00</t>
+          <t>01:19:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>9602.75</v>
+        <v>6316.7</v>
       </c>
       <c r="F78" t="n">
-        <v>9602.75</v>
+        <v>6316.7</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4263,20 +4263,20 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10:29:00</t>
+          <t>01:19:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44971</v>
+        <v>45085</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16:43:00</t>
+          <t>09:31:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3611.17</v>
+        <v>8702.27</v>
       </c>
       <c r="F79" t="n">
-        <v>3611.17</v>
+        <v>8702.27</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4297,12 +4297,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_23</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4312,91 +4312,95 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>16:43:00</t>
+          <t>09:31:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44989</v>
+        <v>45281</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>20:17:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8180.52</v>
+        <v>7870.62</v>
       </c>
       <c r="F80" t="n">
-        <v>8180.52</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+        <v>7870.62</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Other comprehensive income adjustment</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>User_17</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>20:17:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45170</v>
+        <v>45017</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>18:25:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>8688.32</v>
+        <v>8092.86</v>
       </c>
       <c r="F81" t="n">
-        <v>8688.32</v>
+        <v>8092.86</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>User_40</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4406,46 +4410,46 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>18:25:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45209</v>
+        <v>45101</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13:26:00</t>
+          <t>01:54:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Allowance for Doubtful Accounts</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7153.15</v>
+        <v>3121.76</v>
       </c>
       <c r="F82" t="n">
-        <v>7153.15</v>
+        <v>3121.76</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>User_21</t>
+          <t>User_43</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4455,46 +4459,46 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13:26:00</t>
+          <t>01:54:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16:37:00</t>
+          <t>22:17:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1227.13</v>
+        <v>8820.620000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1227.13</v>
+        <v>8820.620000000001</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>User_38</t>
+          <t>User_28</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4504,46 +4508,46 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>16:37:00</t>
+          <t>22:17:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45055</v>
+        <v>45255</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13:20:00</t>
+          <t>21:18:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5587.01</v>
+        <v>2631.62</v>
       </c>
       <c r="F84" t="n">
-        <v>5587.01</v>
+        <v>2631.62</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>system change</t>
+          <t>Revenue recognition adjustment</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_48</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4553,56 +4557,1816 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13:20:00</t>
+          <t>21:18:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45213</v>
+        <v>45248</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10:38:00</t>
+          <t>18:54:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Reserves</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>8485.77</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8485.77</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Retained earnings adjustment</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>User_17</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>18:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>138</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>21:04:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Impairment Charges</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>6692.66</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6692.66</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Clearing account adjustment</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>User_45</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>21:04:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>141</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>18:45:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>Year-End Adjustments</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>2949.07</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2949.07</v>
-      </c>
-      <c r="G85" t="inlineStr">
+      <c r="E87" t="n">
+        <v>7231.47</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7231.47</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Impairment charge for goodwill</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>User_28</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>18:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>142</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45158</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>22:11:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Impairment Charges</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>7673.31</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7673.31</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Impairment charge for goodwill</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>User_46</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>22:11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>143</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>00:53:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Impairment Charges</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>7406.46</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7406.46</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Inventory count adjustment</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>User_6</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>00:53:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>144</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>08:01:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Journal Entry Suspense</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>8840.450000000001</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8840.450000000001</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Professional fees for consulting services</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>User_46</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>08:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>145</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>05:27:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Other Comprehensive Income</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>8931.040000000001</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8931.040000000001</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Restructuring charges for reorganization</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>User_21</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>05:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>146</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>03:22:00</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Restructuring Charges</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1652.95</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1652.95</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Year-end adjustment for financial statements</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>User_13</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>03:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>148</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>07:58:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Inventory Adjustments</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>8406.549999999999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8406.549999999999</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Fair value adjustment for investments</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>User_3</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>07:58:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>150</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>19:38:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Other Comprehensive Income</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>7505.18</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7505.18</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Intercompany transaction adjustment</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>User_2</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>19:38:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>151</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>22:08:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Unearned Revenue</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>7874.02</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7874.02</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Prepaid expenses for insurance</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>User_20</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>22:08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>154</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>07:03:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Travel &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3745.36</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3745.36</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Bad debt write-off</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>User_32</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>07:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>155</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18:50:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Travel &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>2347.25</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2347.25</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Intercompany transaction adjustment</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>User_17</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>18:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>157</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45144</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>19:58:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Prepaid Expenses</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>6285.96</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6285.96</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Intercompany transaction adjustment</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>User_22</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>19:58:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>158</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>02:57:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Professional Fees</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>5658.09</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5658.09</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Fair value adjustment for investments</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>User_42</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02:57:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>159</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>09:01:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Year-End Adjustments</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3013.08</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3013.08</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Repairs and maintenance for office equipment</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>User_10</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>09:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>160</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>03:32:00</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Professional Fees</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>5416.89</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5416.89</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Year-end adjustment for financial statements</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>User_44</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>03:32:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>162</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45193</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>05:27:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>7504.24</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7504.24</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Inventory count adjustment</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>User_41</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>05:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>163</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>19:33:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Other Comprehensive Income</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>8148.49</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8148.49</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Year-end adjustment for financial statements</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>User_14</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>19:33:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>166</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>22:41:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Top-side Entries</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>6450.73</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6450.73</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Year-end adjustment for financial statements</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>User_37</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>22:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>170</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>04:53:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Inventory Adjustments</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>2115.65</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2115.65</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Inventory count adjustment</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>User_5</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>04:53:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>171</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>07:31:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Journal Entry Suspense</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>9174.85</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9174.85</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Fair value adjustment for investments</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>User_23</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>07:31:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>172</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>08:41:00</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Manual Journal Adjustments</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>9241.870000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9241.870000000001</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Bad debt write-off</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>User_17</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>08:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>174</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>08:55:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Suspense Accounts</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3313.31</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3313.31</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Suspense account reconciliation</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>User_39</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>08:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>175</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>19:11:00</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3098.86</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3098.86</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Fair value adjustment for investments</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>User_35</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>19:11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>176</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>09:39:00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Journal Entry Suspense</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>7759.75</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7759.75</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Retained earnings adjustment</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>User_49</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>09:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>178</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>23:03:00</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Accounts Receivable</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>5932.86</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5932.86</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Reserves for legal expenses</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>User_18</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>23:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>179</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>7318.28</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7318.28</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>User_13</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>10:38:00</t>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>User_5</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>180</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>05:14:00</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Restructuring Charges</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>5985.48</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5985.48</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Inventory count adjustment</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>User_42</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05:14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>182</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>01:20:00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Inventory Adjustments</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>6227.07</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6227.07</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Bad debt write-off</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>User_24</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>01:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>187</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>06:27:00</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Inventory Adjustments</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2169.69</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2169.69</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Retained earnings adjustment</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>User_10</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>06:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>188</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>05:06:00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Intercompany Accounts</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>5823.97</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5823.97</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Clearing account adjustment</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>User_11</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>05:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>190</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>23:15:00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Clearing Accounts</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>9777.559999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9777.559999999999</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>bypass</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>User_19</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>23:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>192</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>21:50:00</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Year-End Adjustments</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>3259.91</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3259.91</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>User_9</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>21:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>193</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>08:59:00</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Allowance for Doubtful Accounts</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>5820.56</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5820.56</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Fair value adjustment for investments</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>User_20</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>08:59:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>197</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>05:20:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Sales Revenue</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>6777.42</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6777.42</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Fair value adjustment for investments</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>User_34</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Senior Accountant</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>05:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>199</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>19:01:00</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Manual Journal Adjustments</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>5102.77</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5102.77</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Impairment charge for goodwill</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>User_47</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>19:01:00</t>
         </is>
       </c>
     </row>

--- a/FilteredOutput.xlsx
+++ b/FilteredOutput.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,40 +1280,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45153</v>
+        <v>45095</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>22:02:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4559.39</v>
+        <v>5606.14</v>
       </c>
       <c r="F18" t="n">
-        <v>4559.39</v>
+        <v>5606.14</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1323,41 +1323,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>22:02:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45095</v>
+        <v>45069</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22:02:00</t>
+          <t>20:48:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5606.14</v>
+        <v>2380.05</v>
       </c>
       <c r="F19" t="n">
-        <v>5606.14</v>
+        <v>2380.05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1372,46 +1372,46 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>22:02:00</t>
+          <t>20:48:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45069</v>
+        <v>45010</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:48:00</t>
+          <t>01:52:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2380.05</v>
+        <v>1131.87</v>
       </c>
       <c r="F20" t="n">
-        <v>2380.05</v>
+        <v>1131.87</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_6</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1421,46 +1421,46 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>20:48:00</t>
+          <t>01:52:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45010</v>
+        <v>44977</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01:52:00</t>
+          <t>21:49:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1131.87</v>
+        <v>8234.41</v>
       </c>
       <c r="F21" t="n">
-        <v>1131.87</v>
+        <v>8234.41</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>User_6</t>
+          <t>User_48</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1470,32 +1470,32 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01:52:00</t>
+          <t>21:49:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44977</v>
+        <v>45115</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:49:00</t>
+          <t>22:24:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8234.41</v>
+        <v>1991.66</v>
       </c>
       <c r="F22" t="n">
-        <v>8234.41</v>
+        <v>1991.66</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>User_48</t>
+          <t>User_22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1519,46 +1519,46 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21:49:00</t>
+          <t>22:24:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45115</v>
+        <v>45237</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22:24:00</t>
+          <t>06:53:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1991.66</v>
+        <v>8523.35</v>
       </c>
       <c r="F23" t="n">
-        <v>1991.66</v>
+        <v>8523.35</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>User_22</t>
+          <t>User_12</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1568,46 +1568,46 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>22:24:00</t>
+          <t>06:53:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45237</v>
+        <v>45104</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06:53:00</t>
+          <t>07:11:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8523.35</v>
+        <v>5003.43</v>
       </c>
       <c r="F24" t="n">
-        <v>8523.35</v>
+        <v>5003.43</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>User_12</t>
+          <t>User_19</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1617,95 +1617,95 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>06:53:00</t>
+          <t>07:11:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45104</v>
+        <v>45213</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>07:11:00</t>
+          <t>03:37:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5003.43</v>
+        <v>1702.36</v>
       </c>
       <c r="F25" t="n">
-        <v>5003.43</v>
+        <v>1702.36</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>User_19</t>
+          <t>User_37</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>07:11:00</t>
+          <t>03:37:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45079</v>
+        <v>45141</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09:34:00</t>
+          <t>19:34:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9348.83</v>
+        <v>7719.44</v>
       </c>
       <c r="F26" t="n">
-        <v>9348.83</v>
+        <v>7719.44</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>User_42</t>
+          <t>User_36</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1715,95 +1715,95 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>09:34:00</t>
+          <t>19:34:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45213</v>
+        <v>45135</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>03:37:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1702.36</v>
+        <v>1117.23</v>
       </c>
       <c r="F27" t="n">
-        <v>1702.36</v>
+        <v>1117.23</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_2</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>03:37:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45141</v>
+        <v>44963</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:34:00</t>
+          <t>01:53:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7719.44</v>
+        <v>8073.58</v>
       </c>
       <c r="F28" t="n">
-        <v>7719.44</v>
+        <v>8073.58</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>User_36</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1813,32 +1813,32 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>19:34:00</t>
+          <t>01:53:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45135</v>
+        <v>45245</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1117.23</v>
+        <v>5762.33</v>
       </c>
       <c r="F29" t="n">
-        <v>1117.23</v>
+        <v>5762.33</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>User_2</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1862,46 +1862,46 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44963</v>
+        <v>45128</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>01:51:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8073.58</v>
+        <v>6517.52</v>
       </c>
       <c r="F30" t="n">
-        <v>8073.58</v>
+        <v>6517.52</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_24</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1911,46 +1911,46 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>01:51:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45245</v>
+        <v>45013</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5762.33</v>
+        <v>9668.940000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>5762.33</v>
+        <v>9668.940000000001</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1960,46 +1960,46 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45128</v>
+        <v>45059</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01:51:00</t>
+          <t>17:51:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6517.52</v>
+        <v>3458.13</v>
       </c>
       <c r="F32" t="n">
-        <v>6517.52</v>
+        <v>3458.13</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Clearing account adjustment</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>User_24</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2009,46 +2009,46 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>01:51:00</t>
+          <t>17:51:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45013</v>
+        <v>44997</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>19:01:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>9668.940000000001</v>
+        <v>4335.42</v>
       </c>
       <c r="F33" t="n">
-        <v>9668.940000000001</v>
+        <v>4335.42</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_37</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2058,36 +2058,36 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>19:01:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44997</v>
+        <v>44980</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:01:00</t>
+          <t>07:08:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Travel &amp; Entertainment</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4335.42</v>
+        <v>5502.17</v>
       </c>
       <c r="F34" t="n">
-        <v>4335.42</v>
+        <v>5502.17</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2107,46 +2107,46 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>19:01:00</t>
+          <t>07:08:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44980</v>
+        <v>45016</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>07:08:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Travel &amp; Entertainment</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5502.17</v>
+        <v>2681.92</v>
       </c>
       <c r="F35" t="n">
-        <v>5502.17</v>
+        <v>2681.92</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_16</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2156,46 +2156,46 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>07:08:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>02:47:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2681.92</v>
+        <v>3334.75</v>
       </c>
       <c r="F36" t="n">
-        <v>2681.92</v>
+        <v>3334.75</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Revenue recognition adjustment</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_36</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2205,46 +2205,46 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>02:47:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45044</v>
+        <v>45097</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>21:58:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3334.75</v>
+        <v>1280.6</v>
       </c>
       <c r="F37" t="n">
-        <v>3334.75</v>
+        <v>1280.6</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Revenue recognition adjustment</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>User_36</t>
+          <t>User_40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2254,46 +2254,46 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>21:58:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44999</v>
+        <v>45039</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>05:38:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4561.12</v>
+        <v>2563.45</v>
       </c>
       <c r="F38" t="n">
-        <v>4561.12</v>
+        <v>2563.45</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2303,46 +2303,46 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>05:38:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45097</v>
+        <v>45052</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:58:00</t>
+          <t>02:06:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1280.6</v>
+        <v>3798.33</v>
       </c>
       <c r="F39" t="n">
-        <v>1280.6</v>
+        <v>3798.33</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>User_40</t>
+          <t>User_21</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2352,41 +2352,41 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21:58:00</t>
+          <t>02:06:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45028</v>
+        <v>45061</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>02:45:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Top-side Entries</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8140.37</v>
+        <v>8801.799999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>8140.37</v>
+        <v>8801.799999999999</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2401,32 +2401,32 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>02:45:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45039</v>
+        <v>45188</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>05:38:00</t>
+          <t>05:34:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2563.45</v>
+        <v>6247.29</v>
       </c>
       <c r="F41" t="n">
-        <v>2563.45</v>
+        <v>6247.29</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2435,61 +2435,61 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>05:38:00</t>
+          <t>05:34:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45052</v>
+        <v>45101</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02:06:00</t>
+          <t>02:32:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3798.33</v>
+        <v>6388.83</v>
       </c>
       <c r="F42" t="n">
-        <v>3798.33</v>
+        <v>6388.83</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>User_21</t>
+          <t>User_24</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2499,46 +2499,46 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>02:06:00</t>
+          <t>02:32:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45061</v>
+        <v>45074</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>19:13:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Top-side Entries</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8801.799999999999</v>
+        <v>6503.93</v>
       </c>
       <c r="F43" t="n">
-        <v>8801.799999999999</v>
+        <v>6503.93</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2548,95 +2548,95 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>19:13:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45188</v>
+        <v>44973</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>05:34:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6247.29</v>
+        <v>1521.94</v>
       </c>
       <c r="F44" t="n">
-        <v>6247.29</v>
+        <v>1521.94</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>05:34:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>02:32:00</t>
+          <t>22:28:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6388.83</v>
+        <v>2995.73</v>
       </c>
       <c r="F45" t="n">
-        <v>6388.83</v>
+        <v>2995.73</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>User_24</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2646,41 +2646,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02:32:00</t>
+          <t>22:28:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45074</v>
+        <v>45214</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>19:13:00</t>
+          <t>08:19:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Accounts Receivable</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6503.93</v>
+        <v>2740.26</v>
       </c>
       <c r="F46" t="n">
-        <v>6503.93</v>
+        <v>2740.26</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2695,46 +2695,46 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>19:13:00</t>
+          <t>08:19:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44973</v>
+        <v>45071</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>03:48:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1521.94</v>
+        <v>8425.049999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1521.94</v>
+        <v>8425.049999999999</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2744,46 +2744,46 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>03:48:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45079</v>
+        <v>45197</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22:28:00</t>
+          <t>04:44:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2995.73</v>
+        <v>7177.55</v>
       </c>
       <c r="F48" t="n">
-        <v>2995.73</v>
+        <v>7177.55</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2793,46 +2793,46 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>22:28:00</t>
+          <t>04:44:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44960</v>
+        <v>45212</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>09:14:00</t>
+          <t>08:01:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>7397.7</v>
+        <v>9232.790000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>7397.7</v>
+        <v>9232.790000000001</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2842,32 +2842,32 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>09:14:00</t>
+          <t>08:01:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45121</v>
+        <v>45103</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>01:50:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2981.83</v>
+        <v>9272.709999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>2981.83</v>
+        <v>9272.709999999999</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>User_19</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2891,46 +2891,46 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>01:50:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45214</v>
+        <v>45278</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>08:19:00</t>
+          <t>17:10:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Accounts Receivable</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2740.26</v>
+        <v>2372.31</v>
       </c>
       <c r="F51" t="n">
-        <v>2740.26</v>
+        <v>2372.31</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_40</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2940,46 +2940,46 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>08:19:00</t>
+          <t>17:10:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45071</v>
+        <v>45189</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>03:48:00</t>
+          <t>05:12:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8425.049999999999</v>
+        <v>7143.94</v>
       </c>
       <c r="F52" t="n">
-        <v>8425.049999999999</v>
+        <v>7143.94</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2989,46 +2989,46 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>03:48:00</t>
+          <t>05:12:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45197</v>
+        <v>45136</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04:44:00</t>
+          <t>06:52:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7177.55</v>
+        <v>5999.4</v>
       </c>
       <c r="F53" t="n">
-        <v>7177.55</v>
+        <v>5999.4</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3038,41 +3038,41 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>04:44:00</t>
+          <t>06:52:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45212</v>
+        <v>45276</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>08:01:00</t>
+          <t>23:46:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9232.790000000001</v>
+        <v>2825.72</v>
       </c>
       <c r="F54" t="n">
-        <v>9232.790000000001</v>
+        <v>2825.72</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3087,41 +3087,41 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>08:01:00</t>
+          <t>23:46:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45103</v>
+        <v>45092</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>00:33:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>9272.709999999999</v>
+        <v>7528.55</v>
       </c>
       <c r="F55" t="n">
-        <v>9272.709999999999</v>
+        <v>7528.55</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_9</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3131,51 +3131,51 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45189</v>
+        <v>45242</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>05:12:00</t>
+          <t>21:23:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7143.94</v>
+        <v>5085.03</v>
       </c>
       <c r="F56" t="n">
-        <v>7143.94</v>
+        <v>5085.03</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_29</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3185,46 +3185,46 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>05:12:00</t>
+          <t>21:23:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45136</v>
+        <v>45060</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>06:52:00</t>
+          <t>21:03:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5999.4</v>
+        <v>6905.87</v>
       </c>
       <c r="F57" t="n">
-        <v>5999.4</v>
+        <v>6905.87</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Gain on disposal of assets</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>User_2</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3234,41 +3234,41 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>06:52:00</t>
+          <t>21:03:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45276</v>
+        <v>45241</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23:46:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2825.72</v>
+        <v>6408.86</v>
       </c>
       <c r="F58" t="n">
-        <v>2825.72</v>
+        <v>6408.86</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_49</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3283,46 +3283,46 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23:46:00</t>
+          <t>01:35:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45092</v>
+        <v>45123</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>19:46:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7528.55</v>
+        <v>1646.14</v>
       </c>
       <c r="F59" t="n">
-        <v>7528.55</v>
+        <v>1646.14</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>User_9</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3332,46 +3332,46 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>19:46:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45242</v>
+        <v>45274</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>21:23:00</t>
+          <t>19:41:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5085.03</v>
+        <v>7869.06</v>
       </c>
       <c r="F60" t="n">
-        <v>5085.03</v>
+        <v>7869.06</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_43</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3381,46 +3381,46 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>21:23:00</t>
+          <t>19:41:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45060</v>
+        <v>45176</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>21:03:00</t>
+          <t>05:09:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6905.87</v>
+        <v>3533.3</v>
       </c>
       <c r="F61" t="n">
-        <v>6905.87</v>
+        <v>3533.3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Gain on disposal of assets</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>User_39</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3430,144 +3430,144 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>21:03:00</t>
+          <t>05:09:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45241</v>
+        <v>45239</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>07:24:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6408.86</v>
+        <v>4944.96</v>
       </c>
       <c r="F62" t="n">
-        <v>6408.86</v>
+        <v>4944.96</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>User_49</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>07:24:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45123</v>
+        <v>44950</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>19:46:00</t>
+          <t>22:38:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1646.14</v>
+        <v>4796.43</v>
       </c>
       <c r="F63" t="n">
-        <v>1646.14</v>
+        <v>4796.43</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_14</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>19:46:00</t>
+          <t>22:38:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45274</v>
+        <v>44932</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>19:41:00</t>
+          <t>04:09:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>7869.06</v>
+        <v>3178.55</v>
       </c>
       <c r="F64" t="n">
-        <v>7869.06</v>
+        <v>3178.55</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>User_43</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3577,32 +3577,32 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>19:41:00</t>
+          <t>04:09:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45176</v>
+        <v>45158</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>05:09:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3533.3</v>
+        <v>8483.9</v>
       </c>
       <c r="F65" t="n">
-        <v>3533.3</v>
+        <v>8483.9</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_27</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3626,46 +3626,46 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>05:09:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45239</v>
+        <v>45194</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>07:24:00</t>
+          <t>01:02:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4944.96</v>
+        <v>6564.8</v>
       </c>
       <c r="F66" t="n">
-        <v>4944.96</v>
+        <v>6564.8</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_45</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3675,32 +3675,32 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>07:24:00</t>
+          <t>01:02:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44950</v>
+        <v>45190</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>22:38:00</t>
+          <t>21:17:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4796.43</v>
+        <v>6490.27</v>
       </c>
       <c r="F67" t="n">
-        <v>4796.43</v>
+        <v>6490.27</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3709,12 +3709,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>User_14</t>
+          <t>User_15</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3724,32 +3724,32 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>22:38:00</t>
+          <t>21:17:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44932</v>
+        <v>45002</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>04:09:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3178.55</v>
+        <v>4932.44</v>
       </c>
       <c r="F68" t="n">
-        <v>3178.55</v>
+        <v>4932.44</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3758,12 +3758,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_27</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3773,46 +3773,46 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>04:09:00</t>
+          <t>18:19:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45158</v>
+        <v>44959</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>8483.9</v>
+        <v>2952.52</v>
       </c>
       <c r="F69" t="n">
-        <v>8483.9</v>
+        <v>2952.52</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>User_27</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3822,46 +3822,46 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:35:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45194</v>
+        <v>45169</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01:02:00</t>
+          <t>22:57:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Repairs &amp; Maintenance</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6564.8</v>
+        <v>2243.98</v>
       </c>
       <c r="F70" t="n">
-        <v>6564.8</v>
+        <v>2243.98</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>User_45</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3871,46 +3871,46 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01:02:00</t>
+          <t>22:57:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45190</v>
+        <v>45072</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>21:17:00</t>
+          <t>00:28:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6490.27</v>
+        <v>5294.06</v>
       </c>
       <c r="F71" t="n">
-        <v>6490.27</v>
+        <v>5294.06</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>User_15</t>
+          <t>User_29</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3920,20 +3920,20 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>21:17:00</t>
+          <t>00:28:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45002</v>
+        <v>45007</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>21:33:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3942,19 +3942,19 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4932.44</v>
+        <v>3632.24</v>
       </c>
       <c r="F72" t="n">
-        <v>4932.44</v>
+        <v>3632.24</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>User_27</t>
+          <t>User_12</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3969,46 +3969,46 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>21:33:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44959</v>
+        <v>45196</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>08:58:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2952.52</v>
+        <v>6642.34</v>
       </c>
       <c r="F73" t="n">
-        <v>2952.52</v>
+        <v>6642.34</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_20</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4018,46 +4018,46 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>08:58:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>22:57:00</t>
+          <t>01:19:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2243.98</v>
+        <v>6316.7</v>
       </c>
       <c r="F74" t="n">
-        <v>2243.98</v>
+        <v>6316.7</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4067,46 +4067,46 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>22:57:00</t>
+          <t>01:19:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45072</v>
+        <v>45281</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>20:17:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5294.06</v>
+        <v>7870.62</v>
       </c>
       <c r="F75" t="n">
-        <v>5294.06</v>
+        <v>7870.62</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4116,46 +4116,46 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>20:17:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45007</v>
+        <v>45017</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>21:33:00</t>
+          <t>18:25:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3632.24</v>
+        <v>8092.86</v>
       </c>
       <c r="F76" t="n">
-        <v>3632.24</v>
+        <v>8092.86</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>User_12</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4165,46 +4165,46 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21:33:00</t>
+          <t>18:25:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45196</v>
+        <v>45101</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>08:58:00</t>
+          <t>01:54:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6642.34</v>
+        <v>3121.76</v>
       </c>
       <c r="F77" t="n">
-        <v>6642.34</v>
+        <v>3121.76</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>User_20</t>
+          <t>User_43</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4214,46 +4214,46 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08:58:00</t>
+          <t>01:54:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45161</v>
+        <v>45016</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01:19:00</t>
+          <t>22:17:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6316.7</v>
+        <v>8820.620000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>6316.7</v>
+        <v>8820.620000000001</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_28</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4263,41 +4263,41 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01:19:00</t>
+          <t>22:17:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45085</v>
+        <v>45255</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>09:31:00</t>
+          <t>21:18:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>8702.27</v>
+        <v>2631.62</v>
       </c>
       <c r="F79" t="n">
-        <v>8702.27</v>
+        <v>2631.62</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Revenue recognition adjustment</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>User_23</t>
+          <t>User_48</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4312,41 +4312,41 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>09:31:00</t>
+          <t>21:18:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45281</v>
+        <v>45248</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>20:17:00</t>
+          <t>18:54:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7870.62</v>
+        <v>8485.77</v>
       </c>
       <c r="F80" t="n">
-        <v>7870.62</v>
+        <v>8485.77</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_17</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4361,41 +4361,41 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>20:17:00</t>
+          <t>18:54:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45017</v>
+        <v>45102</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>18:25:00</t>
+          <t>21:04:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>8092.86</v>
+        <v>6692.66</v>
       </c>
       <c r="F81" t="n">
-        <v>8092.86</v>
+        <v>6692.66</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Clearing account adjustment</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_45</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4410,46 +4410,46 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>18:25:00</t>
+          <t>21:04:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45101</v>
+        <v>45085</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01:54:00</t>
+          <t>17:41:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3121.76</v>
+        <v>1462.17</v>
       </c>
       <c r="F82" t="n">
-        <v>3121.76</v>
+        <v>1462.17</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>User_43</t>
+          <t>User_16</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4459,36 +4459,36 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>01:54:00</t>
+          <t>17:41:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45016</v>
+        <v>45085</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>22:17:00</t>
+          <t>18:45:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8820.620000000001</v>
+        <v>7231.47</v>
       </c>
       <c r="F83" t="n">
-        <v>8820.620000000001</v>
+        <v>7231.47</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4503,46 +4503,46 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>22:17:00</t>
+          <t>18:45:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45255</v>
+        <v>45158</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>21:18:00</t>
+          <t>22:11:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2631.62</v>
+        <v>7673.31</v>
       </c>
       <c r="F84" t="n">
-        <v>2631.62</v>
+        <v>7673.31</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Revenue recognition adjustment</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>User_48</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4557,41 +4557,41 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21:18:00</t>
+          <t>22:11:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45248</v>
+        <v>45154</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>18:54:00</t>
+          <t>00:53:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8485.77</v>
+        <v>7406.46</v>
       </c>
       <c r="F85" t="n">
-        <v>8485.77</v>
+        <v>7406.46</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>User_17</t>
+          <t>User_6</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4606,46 +4606,46 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18:54:00</t>
+          <t>00:53:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45102</v>
+        <v>45027</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>21:04:00</t>
+          <t>08:01:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6692.66</v>
+        <v>8840.450000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>6692.66</v>
+        <v>8840.450000000001</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Clearing account adjustment</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>User_45</t>
+          <t>User_46</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4655,41 +4655,41 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>21:04:00</t>
+          <t>08:01:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45085</v>
+        <v>45220</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>05:27:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Other Comprehensive Income</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>7231.47</v>
+        <v>8931.040000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>7231.47</v>
+        <v>8931.040000000001</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>User_28</t>
+          <t>User_21</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4699,51 +4699,51 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>05:27:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45158</v>
+        <v>45134</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>22:11:00</t>
+          <t>03:22:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7673.31</v>
+        <v>1652.95</v>
       </c>
       <c r="F88" t="n">
-        <v>7673.31</v>
+        <v>1652.95</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4753,46 +4753,46 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>22:11:00</t>
+          <t>03:22:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45154</v>
+        <v>45248</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>07:58:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7406.46</v>
+        <v>8406.549999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>7406.46</v>
+        <v>8406.549999999999</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>User_6</t>
+          <t>User_3</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4802,46 +4802,46 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>07:58:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45027</v>
+        <v>45277</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>08:01:00</t>
+          <t>19:38:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Other Comprehensive Income</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>8840.450000000001</v>
+        <v>7505.18</v>
       </c>
       <c r="F90" t="n">
-        <v>8840.450000000001</v>
+        <v>7505.18</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_2</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4851,46 +4851,46 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>08:01:00</t>
+          <t>19:38:00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45220</v>
+        <v>45030</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>05:27:00</t>
+          <t>22:08:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Other Comprehensive Income</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>8931.040000000001</v>
+        <v>7874.02</v>
       </c>
       <c r="F91" t="n">
-        <v>8931.040000000001</v>
+        <v>7874.02</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>User_21</t>
+          <t>User_20</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4900,41 +4900,41 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>05:27:00</t>
+          <t>22:08:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45134</v>
+        <v>45197</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>03:22:00</t>
+          <t>17:25:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1652.95</v>
+        <v>1524.73</v>
       </c>
       <c r="F92" t="n">
-        <v>1652.95</v>
+        <v>1524.73</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_28</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4949,46 +4949,46 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>03:22:00</t>
+          <t>17:25:00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45248</v>
+        <v>45088</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>07:58:00</t>
+          <t>07:03:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Travel &amp; Entertainment</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>8406.549999999999</v>
+        <v>3745.36</v>
       </c>
       <c r="F93" t="n">
-        <v>8406.549999999999</v>
+        <v>3745.36</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>User_3</t>
+          <t>User_32</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4998,32 +4998,32 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>07:58:00</t>
+          <t>07:03:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45277</v>
+        <v>44988</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>19:38:00</t>
+          <t>18:50:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Other Comprehensive Income</t>
+          <t>Travel &amp; Entertainment</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>7505.18</v>
+        <v>2347.25</v>
       </c>
       <c r="F94" t="n">
-        <v>7505.18</v>
+        <v>2347.25</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5032,61 +5032,61 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>User_2</t>
+          <t>User_17</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>19:38:00</t>
+          <t>18:50:00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45030</v>
+        <v>45144</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>22:08:00</t>
+          <t>19:58:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7874.02</v>
+        <v>6285.96</v>
       </c>
       <c r="F95" t="n">
-        <v>7874.02</v>
+        <v>6285.96</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>User_20</t>
+          <t>User_22</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5096,46 +5096,46 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>22:08:00</t>
+          <t>19:58:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45088</v>
+        <v>44974</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>07:03:00</t>
+          <t>02:57:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Travel &amp; Entertainment</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3745.36</v>
+        <v>5658.09</v>
       </c>
       <c r="F96" t="n">
-        <v>3745.36</v>
+        <v>5658.09</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>User_32</t>
+          <t>User_42</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5145,90 +5145,90 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>07:03:00</t>
+          <t>02:57:00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44988</v>
+        <v>45131</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>18:50:00</t>
+          <t>03:32:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Travel &amp; Entertainment</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2347.25</v>
+        <v>5416.89</v>
       </c>
       <c r="F97" t="n">
-        <v>2347.25</v>
+        <v>5416.89</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>User_17</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>18:50:00</t>
+          <t>03:32:00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45144</v>
+        <v>45193</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>19:58:00</t>
+          <t>05:27:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6285.96</v>
+        <v>7504.24</v>
       </c>
       <c r="F98" t="n">
-        <v>6285.96</v>
+        <v>7504.24</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>User_22</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5243,41 +5243,41 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>19:58:00</t>
+          <t>05:27:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>02:57:00</t>
+          <t>19:33:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Other Comprehensive Income</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5658.09</v>
+        <v>8148.49</v>
       </c>
       <c r="F99" t="n">
-        <v>5658.09</v>
+        <v>8148.49</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>User_42</t>
+          <t>User_14</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5292,46 +5292,46 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>02:57:00</t>
+          <t>19:33:00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45229</v>
+        <v>45002</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>09:01:00</t>
+          <t>22:41:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Top-side Entries</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3013.08</v>
+        <v>6450.73</v>
       </c>
       <c r="F100" t="n">
-        <v>3013.08</v>
+        <v>6450.73</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>User_10</t>
+          <t>User_37</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5341,46 +5341,46 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>09:01:00</t>
+          <t>22:41:00</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45131</v>
+        <v>45226</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>03:32:00</t>
+          <t>04:53:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5416.89</v>
+        <v>2115.65</v>
       </c>
       <c r="F101" t="n">
-        <v>5416.89</v>
+        <v>2115.65</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5390,41 +5390,41 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03:32:00</t>
+          <t>04:53:00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45193</v>
+        <v>44999</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>05:27:00</t>
+          <t>07:31:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>7504.24</v>
+        <v>9174.85</v>
       </c>
       <c r="F102" t="n">
-        <v>7504.24</v>
+        <v>9174.85</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_23</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5439,46 +5439,46 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>05:27:00</t>
+          <t>07:31:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44981</v>
+        <v>45084</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>19:33:00</t>
+          <t>08:41:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Other Comprehensive Income</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>8148.49</v>
+        <v>9241.870000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>8148.49</v>
+        <v>9241.870000000001</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>User_14</t>
+          <t>User_17</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5488,144 +5488,144 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>19:33:00</t>
+          <t>08:41:00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45002</v>
+        <v>45230</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>22:41:00</t>
+          <t>08:55:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Top-side Entries</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6450.73</v>
+        <v>3313.31</v>
       </c>
       <c r="F104" t="n">
-        <v>6450.73</v>
+        <v>3313.31</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>22:41:00</t>
+          <t>08:55:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45226</v>
+        <v>45224</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>04:53:00</t>
+          <t>19:11:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2115.65</v>
+        <v>3098.86</v>
       </c>
       <c r="F105" t="n">
-        <v>2115.65</v>
+        <v>3098.86</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_35</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>04:53:00</t>
+          <t>19:11:00</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44999</v>
+        <v>44975</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>07:31:00</t>
+          <t>23:03:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Accounts Receivable</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>9174.85</v>
+        <v>5932.86</v>
       </c>
       <c r="F106" t="n">
-        <v>9174.85</v>
+        <v>5932.86</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>User_23</t>
+          <t>User_18</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5635,46 +5635,46 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>07:31:00</t>
+          <t>23:03:00</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45084</v>
+        <v>44943</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>08:41:00</t>
+          <t>08:10:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>9241.870000000001</v>
+        <v>7318.28</v>
       </c>
       <c r="F107" t="n">
-        <v>9241.870000000001</v>
+        <v>7318.28</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>User_17</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5684,41 +5684,41 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>08:41:00</t>
+          <t>08:10:00</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45230</v>
+        <v>44977</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>08:55:00</t>
+          <t>05:14:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3313.31</v>
+        <v>5985.48</v>
       </c>
       <c r="F108" t="n">
-        <v>3313.31</v>
+        <v>5985.48</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>User_39</t>
+          <t>User_42</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5728,86 +5728,86 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>08:55:00</t>
+          <t>05:14:00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45224</v>
+        <v>45141</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>19:11:00</t>
+          <t>01:20:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3098.86</v>
+        <v>6227.07</v>
       </c>
       <c r="F109" t="n">
-        <v>3098.86</v>
+        <v>6227.07</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fair value adjustment for investments</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_24</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>19:11:00</t>
+          <t>01:20:00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45100</v>
+        <v>45181</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>09:39:00</t>
+          <t>06:27:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7759.75</v>
+        <v>2169.69</v>
       </c>
       <c r="F110" t="n">
-        <v>7759.75</v>
+        <v>2169.69</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5816,12 +5816,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>User_49</t>
+          <t>User_10</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5831,46 +5831,46 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>09:39:00</t>
+          <t>06:27:00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44975</v>
+        <v>44993</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>23:03:00</t>
+          <t>05:06:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Accounts Receivable</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5932.86</v>
+        <v>5823.97</v>
       </c>
       <c r="F111" t="n">
-        <v>5932.86</v>
+        <v>5823.97</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Clearing account adjustment</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>User_18</t>
+          <t>User_11</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5880,46 +5880,46 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>23:03:00</t>
+          <t>05:06:00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44943</v>
+        <v>44961</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>08:10:00</t>
+          <t>23:15:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>7318.28</v>
+        <v>9777.559999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>7318.28</v>
+        <v>9777.559999999999</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>bypass</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_19</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5929,41 +5929,37 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>08:10:00</t>
+          <t>23:15:00</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44977</v>
+        <v>44965</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>05:14:00</t>
+          <t>21:50:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5985.48</v>
+        <v>3259.91</v>
       </c>
       <c r="F113" t="n">
-        <v>5985.48</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Inventory count adjustment</t>
-        </is>
-      </c>
+        <v>3259.91</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>User_42</t>
+          <t>User_9</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5978,41 +5974,41 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05:14:00</t>
+          <t>21:50:00</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45141</v>
+        <v>44976</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>01:20:00</t>
+          <t>08:59:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Allowance for Doubtful Accounts</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6227.07</v>
+        <v>5820.56</v>
       </c>
       <c r="F114" t="n">
-        <v>6227.07</v>
+        <v>5820.56</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>User_24</t>
+          <t>User_20</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6022,51 +6018,51 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>01:20:00</t>
+          <t>08:59:00</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45181</v>
+        <v>45117</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>06:27:00</t>
+          <t>17:02:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2169.69</v>
+        <v>6104.33</v>
       </c>
       <c r="F115" t="n">
-        <v>2169.69</v>
+        <v>6104.33</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Gain on disposal of assets</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>User_10</t>
+          <t>User_42</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6076,46 +6072,46 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>06:27:00</t>
+          <t>17:02:00</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44993</v>
+        <v>44939</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>05:06:00</t>
+          <t>05:20:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5823.97</v>
+        <v>6777.42</v>
       </c>
       <c r="F116" t="n">
-        <v>5823.97</v>
+        <v>6777.42</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Clearing account adjustment</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>User_11</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6125,46 +6121,46 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>05:06:00</t>
+          <t>05:20:00</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44961</v>
+        <v>45139</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>23:15:00</t>
+          <t>19:01:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>9777.559999999999</v>
+        <v>5102.77</v>
       </c>
       <c r="F117" t="n">
-        <v>9777.559999999999</v>
+        <v>5102.77</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>bypass</t>
+          <t>Impairment charge for goodwill</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>User_19</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6173,198 +6169,6 @@
         </is>
       </c>
       <c r="K117" t="inlineStr">
-        <is>
-          <t>23:15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>192</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>21:50:00</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Year-End Adjustments</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>3259.91</v>
-      </c>
-      <c r="F118" t="n">
-        <v>3259.91</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>User_9</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>21:50:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>193</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>44976</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>08:59:00</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Allowance for Doubtful Accounts</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>5820.56</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5820.56</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>User_20</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Unauthorized</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>08:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>197</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>44939</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>05:20:00</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Sales Revenue</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>6777.42</v>
-      </c>
-      <c r="F120" t="n">
-        <v>6777.42</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>User_34</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>05:20:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>199</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>19:01:00</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Manual Journal Adjustments</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>5102.77</v>
-      </c>
-      <c r="F121" t="n">
-        <v>5102.77</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Impairment charge for goodwill</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>User_47</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>19:01:00</t>
         </is>

--- a/FilteredOutput.xlsx
+++ b/FilteredOutput.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,40 +496,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45087</v>
+        <v>45210</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:19:00</t>
+          <t>12:39:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1446.33</v>
+        <v>4975.48</v>
       </c>
       <c r="F2" t="n">
-        <v>1446.33</v>
+        <v>4975.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Clearing account adjustment</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>User_39</t>
+          <t>User_36</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -539,46 +539,46 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>19:19:00</t>
+          <t>12:39:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44970</v>
+        <v>45073</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:51:00</t>
+          <t>12:01:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1353.67</v>
+        <v>1826.06</v>
       </c>
       <c r="F3" t="n">
-        <v>1353.67</v>
+        <v>1826.06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Accrued expenses for the month</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>User_15</t>
+          <t>User_45</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -588,41 +588,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>08:51:00</t>
+          <t>12:01:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45024</v>
+        <v>45260</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04:33:00</t>
+          <t>13:57:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9935.18</v>
+        <v>6712.74</v>
       </c>
       <c r="F4" t="n">
-        <v>9935.18</v>
+        <v>6712.74</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>User_30</t>
+          <t>User_17</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,46 +637,46 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>04:33:00</t>
+          <t>13:57:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45256</v>
+        <v>45112</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:03:00</t>
+          <t>13:22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3455.36</v>
+        <v>8421.68</v>
       </c>
       <c r="F5" t="n">
-        <v>3455.36</v>
+        <v>8421.68</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>User_39</t>
+          <t>User_3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -686,46 +686,46 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>07:03:00</t>
+          <t>13:22:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45286</v>
+        <v>45160</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Top-side Entries</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3358.36</v>
+        <v>2739.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3358.36</v>
+        <v>2739.6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>User_12</t>
+          <t>User_29</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -735,46 +735,46 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45021</v>
+        <v>44937</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01:43:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Inventory Adjustments</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5264.82</v>
+        <v>1243.84</v>
       </c>
       <c r="F7" t="n">
-        <v>5264.82</v>
+        <v>1243.84</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Accrued expenses for the month</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -784,46 +784,46 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>01:43:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44934</v>
+        <v>45168</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:29:00</t>
+          <t>15:21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Other Comprehensive Income</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5295.85</v>
+        <v>6170.44</v>
       </c>
       <c r="F8" t="n">
-        <v>5295.85</v>
+        <v>6170.44</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -833,46 +833,46 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>07:29:00</t>
+          <t>15:21:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45207</v>
+        <v>45170</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>02:36:00</t>
+          <t>12:51:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6859.72</v>
+        <v>1210.89</v>
       </c>
       <c r="F9" t="n">
-        <v>6859.72</v>
+        <v>1210.89</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>User_10</t>
+          <t>User_3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>02:36:00</t>
+          <t>12:51:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45172</v>
+        <v>45153</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:19:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Top-side Entries</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4435.5</v>
+        <v>4559.39</v>
       </c>
       <c r="F10" t="n">
-        <v>4435.5</v>
+        <v>4559.39</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -916,12 +916,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>User_22</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -931,46 +931,46 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>19:19:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45071</v>
+        <v>45049</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:49:00</t>
+          <t>14:05:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1046.37</v>
+        <v>5337.41</v>
       </c>
       <c r="F11" t="n">
-        <v>1046.37</v>
+        <v>5337.41</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accrued expenses for the month</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>User_30</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -980,46 +980,46 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>00:49:00</t>
+          <t>14:05:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45174</v>
+        <v>45067</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>04:15:00</t>
+          <t>15:37:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5839.88</v>
+        <v>2048.11</v>
       </c>
       <c r="F12" t="n">
-        <v>5839.88</v>
+        <v>2048.11</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>User_2</t>
+          <t>User_28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1029,41 +1029,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>04:15:00</t>
+          <t>15:37:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45156</v>
+        <v>45154</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:14:00</t>
+          <t>16:44:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Allowance for Doubtful Accounts</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3899.62</v>
+        <v>4764.12</v>
       </c>
       <c r="F13" t="n">
-        <v>3899.62</v>
+        <v>4764.12</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>User_40</t>
+          <t>User_16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1078,41 +1078,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>00:14:00</t>
+          <t>16:44:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>04:54:00</t>
+          <t>10:58:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Bad Debt Expense</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1929.51</v>
+        <v>8235.08</v>
       </c>
       <c r="F14" t="n">
-        <v>1929.51</v>
+        <v>8235.08</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>User_36</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1127,41 +1127,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>04:54:00</t>
+          <t>10:58:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23:35:00</t>
+          <t>09:34:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7181.03</v>
+        <v>9348.83</v>
       </c>
       <c r="F15" t="n">
-        <v>7181.03</v>
+        <v>9348.83</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>User_13</t>
+          <t>User_42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1176,41 +1176,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>23:35:00</t>
+          <t>09:34:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44975</v>
+        <v>45281</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:54:00</t>
+          <t>15:24:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4369.26</v>
+        <v>4761.78</v>
       </c>
       <c r="F16" t="n">
-        <v>4369.26</v>
+        <v>4761.78</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1220,37 +1220,37 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>19:54:00</t>
+          <t>15:24:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45181</v>
+        <v>45072</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:27:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8606.91</v>
+        <v>9972.870000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>8606.91</v>
+        <v>9972.870000000001</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1259,56 +1259,56 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>User_6</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>19:27:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45095</v>
+        <v>45001</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22:02:00</t>
+          <t>14:29:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5606.14</v>
+        <v>4196.21</v>
       </c>
       <c r="F18" t="n">
-        <v>5606.14</v>
+        <v>4196.21</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_16</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1323,41 +1323,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>22:02:00</t>
+          <t>14:29:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45069</v>
+        <v>45288</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:48:00</t>
+          <t>12:48:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2380.05</v>
+        <v>3215.98</v>
       </c>
       <c r="F19" t="n">
-        <v>2380.05</v>
+        <v>3215.98</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1372,41 +1372,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>20:48:00</t>
+          <t>12:48:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45010</v>
+        <v>44941</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01:52:00</t>
+          <t>10:41:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1131.87</v>
+        <v>8145.84</v>
       </c>
       <c r="F20" t="n">
-        <v>1131.87</v>
+        <v>8145.84</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>User_6</t>
+          <t>User_27</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1416,46 +1416,46 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>01:52:00</t>
+          <t>10:41:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44977</v>
+        <v>45178</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:49:00</t>
+          <t>11:58:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8234.41</v>
+        <v>9583.370000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>8234.41</v>
+        <v>9583.370000000001</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>User_48</t>
+          <t>User_47</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1470,46 +1470,46 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21:49:00</t>
+          <t>11:58:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45115</v>
+        <v>44999</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:24:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1991.66</v>
+        <v>4561.12</v>
       </c>
       <c r="F22" t="n">
-        <v>1991.66</v>
+        <v>4561.12</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>User_22</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1519,41 +1519,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>22:24:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45237</v>
+        <v>45028</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06:53:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8523.35</v>
+        <v>8140.37</v>
       </c>
       <c r="F23" t="n">
-        <v>8523.35</v>
+        <v>8140.37</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>User_12</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1568,46 +1568,46 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06:53:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45104</v>
+        <v>45018</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>07:11:00</t>
+          <t>11:43:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5003.43</v>
+        <v>5471.62</v>
       </c>
       <c r="F24" t="n">
-        <v>5003.43</v>
+        <v>5471.62</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>User_19</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1617,95 +1617,95 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>07:11:00</t>
+          <t>11:43:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45213</v>
+        <v>45180</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>03:37:00</t>
+          <t>13:27:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1702.36</v>
+        <v>1461.92</v>
       </c>
       <c r="F25" t="n">
-        <v>1702.36</v>
+        <v>1461.92</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_49</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>03:37:00</t>
+          <t>13:27:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45141</v>
+        <v>45040</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:34:00</t>
+          <t>14:21:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7719.44</v>
+        <v>5466.19</v>
       </c>
       <c r="F26" t="n">
-        <v>7719.44</v>
+        <v>5466.19</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>User_36</t>
+          <t>User_9</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>19:34:00</t>
+          <t>14:21:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45135</v>
+        <v>44960</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>09:14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1117.23</v>
+        <v>7397.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1117.23</v>
+        <v>7397.7</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>User_2</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1759,51 +1759,51 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>09:14:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44963</v>
+        <v>45121</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8073.58</v>
+        <v>2981.83</v>
       </c>
       <c r="F28" t="n">
-        <v>8073.58</v>
+        <v>2981.83</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_19</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1813,144 +1813,144 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45245</v>
+        <v>45181</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>13:33:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5762.33</v>
+        <v>9278.120000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>5762.33</v>
+        <v>9278.120000000001</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>13:33:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45128</v>
+        <v>45177</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01:51:00</t>
+          <t>16:02:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6517.52</v>
+        <v>5026.11</v>
       </c>
       <c r="F30" t="n">
-        <v>6517.52</v>
+        <v>5026.11</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>User_24</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>01:51:00</t>
+          <t>16:02:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45013</v>
+        <v>45028</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>11:02:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Top-side Entries</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9668.940000000001</v>
+        <v>1214.03</v>
       </c>
       <c r="F31" t="n">
-        <v>9668.940000000001</v>
+        <v>1214.03</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_43</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1960,46 +1960,46 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>11:02:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45059</v>
+        <v>45088</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>13:42:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3458.13</v>
+        <v>9395.530000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>3458.13</v>
+        <v>9395.530000000001</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Clearing account adjustment</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_9</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2009,46 +2009,46 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>13:42:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44997</v>
+        <v>45092</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:01:00</t>
+          <t>11:21:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4335.42</v>
+        <v>3181.44</v>
       </c>
       <c r="F33" t="n">
-        <v>4335.42</v>
+        <v>3181.44</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Gain on disposal of assets</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2058,46 +2058,46 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>19:01:00</t>
+          <t>11:21:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44980</v>
+        <v>45043</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>07:08:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Travel &amp; Entertainment</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5502.17</v>
+        <v>4651.35</v>
       </c>
       <c r="F34" t="n">
-        <v>5502.17</v>
+        <v>4651.35</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Clearing account adjustment</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_27</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2107,41 +2107,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>07:08:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45016</v>
+        <v>44936</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>12:16:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2681.92</v>
+        <v>5023.58</v>
       </c>
       <c r="F35" t="n">
-        <v>2681.92</v>
+        <v>5023.58</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_9</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2156,41 +2156,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>12:16:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45044</v>
+        <v>44948</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>13:31:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Accrued Liabilities</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3334.75</v>
+        <v>3209.7</v>
       </c>
       <c r="F36" t="n">
-        <v>3334.75</v>
+        <v>3209.7</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Revenue recognition adjustment</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>User_36</t>
+          <t>User_32</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2205,46 +2205,46 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>13:31:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45097</v>
+        <v>44948</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21:58:00</t>
+          <t>14:27:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1280.6</v>
+        <v>7211.78</v>
       </c>
       <c r="F37" t="n">
-        <v>1280.6</v>
+        <v>7211.78</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Revenue recognition adjustment</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>User_40</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2254,46 +2254,46 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>21:58:00</t>
+          <t>14:27:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45039</v>
+        <v>45071</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>05:38:00</t>
+          <t>14:05:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2563.45</v>
+        <v>5005.01</v>
       </c>
       <c r="F38" t="n">
-        <v>2563.45</v>
+        <v>5005.01</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_22</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2303,46 +2303,46 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>05:38:00</t>
+          <t>14:05:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45052</v>
+        <v>45217</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>02:06:00</t>
+          <t>10:22:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Unearned Revenue</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3798.33</v>
+        <v>5510.59</v>
       </c>
       <c r="F39" t="n">
-        <v>3798.33</v>
+        <v>5510.59</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>User_21</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2352,46 +2352,46 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>02:06:00</t>
+          <t>10:22:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45061</v>
+        <v>45072</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Top-side Entries</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8801.799999999999</v>
+        <v>3404.57</v>
       </c>
       <c r="F40" t="n">
-        <v>8801.799999999999</v>
+        <v>3404.57</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_3</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2401,95 +2401,95 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45188</v>
+        <v>45002</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>05:34:00</t>
+          <t>10:16:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Accounts Receivable</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6247.29</v>
+        <v>3282.48</v>
       </c>
       <c r="F41" t="n">
-        <v>6247.29</v>
+        <v>3282.48</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_5</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>05:34:00</t>
+          <t>10:16:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45101</v>
+        <v>45220</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02:32:00</t>
+          <t>14:07:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6388.83</v>
+        <v>9425.709999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>6388.83</v>
+        <v>9425.709999999999</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>User_24</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2499,41 +2499,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>02:32:00</t>
+          <t>14:07:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45074</v>
+        <v>44977</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>19:13:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Professional Fees</t>
+          <t>Allowance for Doubtful Accounts</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6503.93</v>
+        <v>4397.33</v>
       </c>
       <c r="F43" t="n">
-        <v>6503.93</v>
+        <v>4397.33</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bad debt write-off</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2548,46 +2548,46 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>19:13:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44973</v>
+        <v>45251</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>10:36:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1521.94</v>
+        <v>4101.47</v>
       </c>
       <c r="F44" t="n">
-        <v>1521.94</v>
+        <v>4101.47</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_24</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2597,32 +2597,32 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>10:36:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45079</v>
+        <v>45153</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22:28:00</t>
+          <t>16:29:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2995.73</v>
+        <v>2505.71</v>
       </c>
       <c r="F45" t="n">
-        <v>2995.73</v>
+        <v>2505.71</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_21</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2646,32 +2646,32 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>22:28:00</t>
+          <t>16:29:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45214</v>
+        <v>45252</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>08:19:00</t>
+          <t>14:47:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Accounts Receivable</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2740.26</v>
+        <v>8385.360000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>2740.26</v>
+        <v>8385.360000000001</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2680,12 +2680,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_15</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2695,41 +2695,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>08:19:00</t>
+          <t>14:47:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45071</v>
+        <v>45134</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>03:48:00</t>
+          <t>16:13:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8425.049999999999</v>
+        <v>1014.86</v>
       </c>
       <c r="F47" t="n">
-        <v>8425.049999999999</v>
+        <v>1014.86</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Inventory count adjustment</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2744,41 +2744,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>03:48:00</t>
+          <t>16:13:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45197</v>
+        <v>45274</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>04:44:00</t>
+          <t>13:10:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7177.55</v>
+        <v>6871.05</v>
       </c>
       <c r="F48" t="n">
-        <v>7177.55</v>
+        <v>6871.05</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Repairs and maintenance for office equipment</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>User_50</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2793,95 +2793,95 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>04:44:00</t>
+          <t>13:10:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45212</v>
+        <v>45040</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>08:01:00</t>
+          <t>11:06:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>9232.790000000001</v>
+        <v>3554.1</v>
       </c>
       <c r="F49" t="n">
-        <v>9232.790000000001</v>
+        <v>3554.1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Gain on disposal of assets</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_26</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>08:01:00</t>
+          <t>11:06:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45103</v>
+        <v>45257</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>13:36:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9272.709999999999</v>
+        <v>3640.42</v>
       </c>
       <c r="F50" t="n">
-        <v>9272.709999999999</v>
+        <v>3640.42</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2891,46 +2891,46 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>13:36:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45278</v>
+        <v>44942</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17:10:00</t>
+          <t>13:59:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Professional Fees</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2372.31</v>
+        <v>8549.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2372.31</v>
+        <v>8549.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>User_40</t>
+          <t>User_31</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2940,41 +2940,41 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17:10:00</t>
+          <t>13:59:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45189</v>
+        <v>45085</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>05:12:00</t>
+          <t>09:31:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>7143.94</v>
+        <v>8702.27</v>
       </c>
       <c r="F52" t="n">
-        <v>7143.94</v>
+        <v>8702.27</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_23</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2989,46 +2989,46 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>05:12:00</t>
+          <t>09:31:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45136</v>
+        <v>45130</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06:52:00</t>
+          <t>12:21:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5999.4</v>
+        <v>2693.74</v>
       </c>
       <c r="F53" t="n">
-        <v>5999.4</v>
+        <v>2693.74</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>User_2</t>
+          <t>User_40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3038,139 +3038,139 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>06:52:00</t>
+          <t>12:21:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45276</v>
+        <v>45043</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23:46:00</t>
+          <t>10:06:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Clearing Accounts</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2825.72</v>
+        <v>5743.11</v>
       </c>
       <c r="F54" t="n">
-        <v>2825.72</v>
+        <v>5743.11</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_12</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>23:46:00</t>
+          <t>10:06:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45092</v>
+        <v>45141</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>15:54:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Prepaid Expenses</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>7528.55</v>
+        <v>4783</v>
       </c>
       <c r="F55" t="n">
-        <v>7528.55</v>
+        <v>4783</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Suspense account reconciliation</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>User_9</t>
+          <t>User_38</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>15:54:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45242</v>
+        <v>44975</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21:23:00</t>
+          <t>11:29:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Allowance for Doubtful Accounts</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5085.03</v>
+        <v>2317.26</v>
       </c>
       <c r="F56" t="n">
-        <v>5085.03</v>
+        <v>2317.26</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3185,188 +3185,188 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>21:23:00</t>
+          <t>11:29:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45060</v>
+        <v>45254</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21:03:00</t>
+          <t>13:26:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Manual Journal Adjustments</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6905.87</v>
+        <v>3890.21</v>
       </c>
       <c r="F57" t="n">
-        <v>6905.87</v>
+        <v>3890.21</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Gain on disposal of assets</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>User_39</t>
+          <t>User_18</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>21:03:00</t>
+          <t>13:26:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45241</v>
+        <v>45064</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>14:13:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6408.86</v>
+        <v>6438.93</v>
       </c>
       <c r="F58" t="n">
-        <v>6408.86</v>
+        <v>6438.93</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Intercompany transaction adjustment</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>User_49</t>
+          <t>User_32</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01:35:00</t>
+          <t>14:13:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45123</v>
+        <v>45214</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>19:46:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Accrued Expenses</t>
+          <t>Intercompany Accounts</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1646.14</v>
+        <v>3801.78</v>
       </c>
       <c r="F59" t="n">
-        <v>1646.14</v>
+        <v>3801.78</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Reserves for legal expenses</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>19:46:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45274</v>
+        <v>45212</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>19:41:00</t>
+          <t>13:55:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>7869.06</v>
+        <v>7313.94</v>
       </c>
       <c r="F60" t="n">
-        <v>7869.06</v>
+        <v>7313.94</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>User_43</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3376,51 +3376,51 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19:41:00</t>
+          <t>13:55:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45176</v>
+        <v>45030</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>05:09:00</t>
+          <t>13:34:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Fair Value Adjustments</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3533.3</v>
+        <v>5344.31</v>
       </c>
       <c r="F61" t="n">
-        <v>3533.3</v>
+        <v>5344.31</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>User_5</t>
+          <t>User_16</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3430,41 +3430,41 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>05:09:00</t>
+          <t>13:34:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45239</v>
+        <v>45021</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>07:24:00</t>
+          <t>13:33:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Bad Debt Expense</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4944.96</v>
+        <v>8498.42</v>
       </c>
       <c r="F62" t="n">
-        <v>4944.96</v>
+        <v>8498.42</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Travel expenses for business trip</t>
+          <t>Fair value adjustment for investments</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>User_7</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3479,46 +3479,46 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>07:24:00</t>
+          <t>13:33:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44950</v>
+        <v>45058</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22:38:00</t>
+          <t>15:05:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4796.43</v>
+        <v>7254.73</v>
       </c>
       <c r="F63" t="n">
-        <v>4796.43</v>
+        <v>7254.73</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>User_14</t>
+          <t>User_7</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3528,46 +3528,46 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>22:38:00</t>
+          <t>15:05:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44932</v>
+        <v>45140</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>04:09:00</t>
+          <t>13:52:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3178.55</v>
+        <v>3736.08</v>
       </c>
       <c r="F64" t="n">
-        <v>3178.55</v>
+        <v>3736.08</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>User_35</t>
+          <t>User_25</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3577,46 +3577,46 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>04:09:00</t>
+          <t>13:52:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45158</v>
+        <v>45229</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>09:01:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8483.9</v>
+        <v>3013.08</v>
       </c>
       <c r="F65" t="n">
-        <v>8483.9</v>
+        <v>3013.08</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>User_27</t>
+          <t>User_10</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3626,46 +3626,46 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>09:01:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45194</v>
+        <v>45039</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01:02:00</t>
+          <t>15:17:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6564.8</v>
+        <v>8613.549999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>6564.8</v>
+        <v>8613.549999999999</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Intercompany transaction adjustment</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>User_45</t>
+          <t>User_27</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3675,46 +3675,46 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01:02:00</t>
+          <t>15:17:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45190</v>
+        <v>45161</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>21:17:00</t>
+          <t>16:12:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Unearned Revenue</t>
+          <t>Top-side Entries</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6490.27</v>
+        <v>4004.85</v>
       </c>
       <c r="F67" t="n">
-        <v>6490.27</v>
+        <v>4004.85</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Reserves for legal expenses</t>
+          <t>Revenue recognition adjustment</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>User_15</t>
+          <t>User_50</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3724,46 +3724,46 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>21:17:00</t>
+          <t>16:12:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45002</v>
+        <v>45166</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>15:09:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4932.44</v>
+        <v>7556.16</v>
       </c>
       <c r="F68" t="n">
-        <v>4932.44</v>
+        <v>7556.16</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Professional fees for consulting services</t>
+          <t>Bad debt write-off</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>User_27</t>
+          <t>User_37</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3773,46 +3773,46 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>15:09:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44959</v>
+        <v>45195</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>13:41:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Restructuring Charges</t>
+          <t>Allowance for Doubtful Accounts</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2952.52</v>
+        <v>1181.39</v>
       </c>
       <c r="F69" t="n">
-        <v>2952.52</v>
+        <v>1181.39</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Professional fees for consulting services</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>User_47</t>
+          <t>User_28</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3822,95 +3822,95 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>13:41:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45169</v>
+        <v>45009</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>22:57:00</t>
+          <t>10:53:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Repairs &amp; Maintenance</t>
+          <t>Bad Debt Expense</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2243.98</v>
+        <v>1599.32</v>
       </c>
       <c r="F70" t="n">
-        <v>2243.98</v>
+        <v>1599.32</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Other comprehensive income adjustment</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>User_33</t>
+          <t>User_34</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>22:57:00</t>
+          <t>10:53:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45072</v>
+        <v>45194</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>15:34:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Inventory Adjustments</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5294.06</v>
+        <v>7602</v>
       </c>
       <c r="F71" t="n">
-        <v>5294.06</v>
+        <v>7602</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_4</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3920,46 +3920,46 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>15:34:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45007</v>
+        <v>45063</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>21:33:00</t>
+          <t>11:33:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Accrued Expenses</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3632.24</v>
+        <v>8994.790000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>3632.24</v>
+        <v>8994.790000000001</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Prepaid expenses for insurance</t>
+          <t>Clearing account adjustment</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>User_12</t>
+          <t>User_3</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3969,46 +3969,46 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>21:33:00</t>
+          <t>11:33:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45196</v>
+        <v>45100</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>08:58:00</t>
+          <t>09:39:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6642.34</v>
+        <v>7759.75</v>
       </c>
       <c r="F73" t="n">
-        <v>6642.34</v>
+        <v>7759.75</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Year-end adjustment for financial statements</t>
+          <t>Retained earnings adjustment</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>User_20</t>
+          <t>User_49</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4018,20 +4018,20 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>08:58:00</t>
+          <t>09:39:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45161</v>
+        <v>45164</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01:19:00</t>
+          <t>13:10:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4040,24 +4040,24 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6316.7</v>
+        <v>5988.61</v>
       </c>
       <c r="F74" t="n">
-        <v>6316.7</v>
+        <v>5988.61</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Restructuring charges for reorganization</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_21</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4067,41 +4067,41 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>01:19:00</t>
+          <t>13:10:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45281</v>
+        <v>45187</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20:17:00</t>
+          <t>13:02:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7870.62</v>
+        <v>2302.02</v>
       </c>
       <c r="F75" t="n">
-        <v>7870.62</v>
+        <v>2302.02</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Other comprehensive income adjustment</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>User_34</t>
+          <t>User_6</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4116,41 +4116,41 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>20:17:00</t>
+          <t>13:02:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45017</v>
+        <v>44954</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>18:25:00</t>
+          <t>12:54:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Gains/Losses on Disposal of Assets</t>
+          <t>Accounts Receivable</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>8092.86</v>
+        <v>1028.71</v>
       </c>
       <c r="F76" t="n">
-        <v>8092.86</v>
+        <v>1028.71</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Restructuring charges for reorganization</t>
+          <t>Accrued expenses for the month</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>User_44</t>
+          <t>User_20</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4165,46 +4165,46 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>18:25:00</t>
+          <t>12:54:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45101</v>
+        <v>45176</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01:54:00</t>
+          <t>16:56:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Journal Entry Suspense</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3121.76</v>
+        <v>4358.52</v>
       </c>
       <c r="F77" t="n">
-        <v>3121.76</v>
+        <v>4358.52</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Repairs and maintenance for office equipment</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>User_43</t>
+          <t>User_10</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4214,46 +4214,46 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01:54:00</t>
+          <t>16:56:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45016</v>
+        <v>45113</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>22:17:00</t>
+          <t>10:29:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Journal Entry Suspense</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8820.620000000001</v>
+        <v>9602.75</v>
       </c>
       <c r="F78" t="n">
-        <v>8820.620000000001</v>
+        <v>9602.75</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Retained earnings adjustment</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>User_28</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4263,46 +4263,46 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>22:17:00</t>
+          <t>10:29:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45255</v>
+        <v>44971</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>21:18:00</t>
+          <t>16:43:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Restructuring Charges</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2631.62</v>
+        <v>3611.17</v>
       </c>
       <c r="F79" t="n">
-        <v>2631.62</v>
+        <v>3611.17</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Revenue recognition adjustment</t>
+          <t>Prepaid expenses for insurance</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>User_48</t>
+          <t>User_29</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4312,38 +4312,34 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21:18:00</t>
+          <t>16:43:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45248</v>
+        <v>44989</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>18:54:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Accrued Liabilities</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8485.77</v>
+        <v>8180.52</v>
       </c>
       <c r="F80" t="n">
-        <v>8485.77</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Retained earnings adjustment</t>
-        </is>
-      </c>
+        <v>8180.52</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>User_17</t>
@@ -4351,56 +4347,56 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>18:54:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45102</v>
+        <v>45170</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>21:04:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6692.66</v>
+        <v>8688.32</v>
       </c>
       <c r="F81" t="n">
-        <v>6692.66</v>
+        <v>8688.32</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Clearing account adjustment</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>User_45</t>
+          <t>User_40</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4410,41 +4406,41 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>21:04:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45085</v>
+        <v>45209</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>17:41:00</t>
+          <t>13:26:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Clearing Accounts</t>
+          <t>Allowance for Doubtful Accounts</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1462.17</v>
+        <v>7153.15</v>
       </c>
       <c r="F82" t="n">
-        <v>1462.17</v>
+        <v>7153.15</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Travel expenses for business trip</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_21</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4459,95 +4455,95 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>17:41:00</t>
+          <t>13:26:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45085</v>
+        <v>45005</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>16:37:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7231.47</v>
+        <v>1227.13</v>
       </c>
       <c r="F83" t="n">
-        <v>7231.47</v>
+        <v>1227.13</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>Year-end adjustment for financial statements</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>User_28</t>
+          <t>User_38</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Junior Accountant</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>16:37:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45158</v>
+        <v>45055</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>22:11:00</t>
+          <t>13:20:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>7673.31</v>
+        <v>5587.01</v>
       </c>
       <c r="F84" t="n">
-        <v>7673.31</v>
+        <v>5587.01</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Impairment charge for goodwill</t>
+          <t>system change</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_16</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4557,41 +4553,41 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>22:11:00</t>
+          <t>13:20:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45154</v>
+        <v>45213</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>10:38:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Impairment Charges</t>
+          <t>Year-End Adjustments</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7406.46</v>
+        <v>2949.07</v>
       </c>
       <c r="F85" t="n">
-        <v>7406.46</v>
+        <v>2949.07</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Inventory count adjustment</t>
+          <t>Manual adjustment to accounts receivable</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>User_6</t>
+          <t>User_13</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4606,1571 +4602,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>00:53:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>144</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>08:01:00</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Journal Entry Suspense</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>8840.450000000001</v>
-      </c>
-      <c r="F86" t="n">
-        <v>8840.450000000001</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Professional fees for consulting services</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>User_46</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>08:01:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>145</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>45220</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>05:27:00</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Other Comprehensive Income</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>8931.040000000001</v>
-      </c>
-      <c r="F87" t="n">
-        <v>8931.040000000001</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Restructuring charges for reorganization</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>User_21</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>05:27:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>146</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>45134</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>03:22:00</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Restructuring Charges</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>1652.95</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1652.95</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Year-end adjustment for financial statements</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>User_13</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>03:22:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>148</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45248</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>07:58:00</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Inventory Adjustments</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>8406.549999999999</v>
-      </c>
-      <c r="F89" t="n">
-        <v>8406.549999999999</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>User_3</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>07:58:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>150</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45277</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>19:38:00</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Other Comprehensive Income</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>7505.18</v>
-      </c>
-      <c r="F90" t="n">
-        <v>7505.18</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Intercompany transaction adjustment</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>User_2</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>19:38:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>151</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>22:08:00</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Unearned Revenue</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>7874.02</v>
-      </c>
-      <c r="F91" t="n">
-        <v>7874.02</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Prepaid expenses for insurance</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>User_20</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>22:08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>153</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>17:25:00</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Unearned Revenue</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>1524.73</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1524.73</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Reserves for legal expenses</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>User_28</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>17:25:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>154</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45088</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>07:03:00</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Travel &amp; Entertainment</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>3745.36</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3745.36</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Bad debt write-off</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>User_32</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>07:03:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>155</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>44988</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>18:50:00</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Travel &amp; Entertainment</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>2347.25</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2347.25</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Intercompany transaction adjustment</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>User_17</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Unauthorized</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>18:50:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>157</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>45144</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>19:58:00</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Prepaid Expenses</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>6285.96</v>
-      </c>
-      <c r="F95" t="n">
-        <v>6285.96</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Intercompany transaction adjustment</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>User_22</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>19:58:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>158</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>44974</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>02:57:00</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Professional Fees</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>5658.09</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5658.09</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>User_42</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>02:57:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>160</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>03:32:00</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Professional Fees</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>5416.89</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5416.89</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Year-end adjustment for financial statements</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>User_44</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>03:32:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>162</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>45193</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>05:27:00</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Accrued Expenses</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>7504.24</v>
-      </c>
-      <c r="F98" t="n">
-        <v>7504.24</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Inventory count adjustment</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>User_41</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>05:27:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>163</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>44981</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>19:33:00</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Other Comprehensive Income</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>8148.49</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8148.49</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Year-end adjustment for financial statements</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>User_14</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>19:33:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>166</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>45002</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>22:41:00</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Top-side Entries</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>6450.73</v>
-      </c>
-      <c r="F100" t="n">
-        <v>6450.73</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Year-end adjustment for financial statements</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>User_37</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>22:41:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>170</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>45226</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>04:53:00</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Inventory Adjustments</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>2115.65</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2115.65</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Inventory count adjustment</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>User_5</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>04:53:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>171</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>07:31:00</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Journal Entry Suspense</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>9174.85</v>
-      </c>
-      <c r="F102" t="n">
-        <v>9174.85</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>User_23</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>07:31:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>172</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>45084</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>08:41:00</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Manual Journal Adjustments</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>9241.870000000001</v>
-      </c>
-      <c r="F103" t="n">
-        <v>9241.870000000001</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Bad debt write-off</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>User_17</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>08:41:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>174</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>08:55:00</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Suspense Accounts</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>3313.31</v>
-      </c>
-      <c r="F104" t="n">
-        <v>3313.31</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Suspense account reconciliation</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>User_39</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Unauthorized</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>08:55:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>175</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>45224</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>19:11:00</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Accrued Expenses</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>3098.86</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3098.86</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>User_35</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Unauthorized</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>19:11:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>178</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>44975</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>23:03:00</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Accounts Receivable</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>5932.86</v>
-      </c>
-      <c r="F106" t="n">
-        <v>5932.86</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Reserves for legal expenses</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>User_18</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>23:03:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>179</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>08:10:00</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Accrued Expenses</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>7318.28</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7318.28</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>User_5</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>08:10:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>180</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>05:14:00</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Restructuring Charges</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>5985.48</v>
-      </c>
-      <c r="F108" t="n">
-        <v>5985.48</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Inventory count adjustment</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>User_42</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>05:14:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>182</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>45141</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>01:20:00</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Inventory Adjustments</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>6227.07</v>
-      </c>
-      <c r="F109" t="n">
-        <v>6227.07</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Bad debt write-off</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>User_24</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>01:20:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>187</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>45181</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>06:27:00</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Inventory Adjustments</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>2169.69</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2169.69</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Retained earnings adjustment</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>User_10</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>06:27:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>188</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>44993</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>05:06:00</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Intercompany Accounts</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>5823.97</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5823.97</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Clearing account adjustment</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>User_11</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>05:06:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>190</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>44961</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>23:15:00</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Clearing Accounts</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>9777.559999999999</v>
-      </c>
-      <c r="F112" t="n">
-        <v>9777.559999999999</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>bypass</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>User_19</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>23:15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>192</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>21:50:00</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Year-End Adjustments</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>3259.91</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3259.91</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>User_9</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>21:50:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>193</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>44976</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>08:59:00</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Allowance for Doubtful Accounts</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>5820.56</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5820.56</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>User_20</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Unauthorized</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>08:59:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>195</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>17:02:00</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Clearing Accounts</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>6104.33</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6104.33</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Gain on disposal of assets</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>User_42</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>17:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>197</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>44939</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>05:20:00</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Sales Revenue</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>6777.42</v>
-      </c>
-      <c r="F116" t="n">
-        <v>6777.42</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Fair value adjustment for investments</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>User_34</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>05:20:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>199</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>19:01:00</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Manual Journal Adjustments</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>5102.77</v>
-      </c>
-      <c r="F117" t="n">
-        <v>5102.77</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Impairment charge for goodwill</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>User_47</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>19:01:00</t>
+          <t>10:38:00</t>
         </is>
       </c>
     </row>
